--- a/natmiOut/OldD2/LR-pairs_lrc2p/Fn1-Itga9.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Fn1-Itga9.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>39.5081721297966</v>
+        <v>40.7349555</v>
       </c>
       <c r="H2">
-        <v>39.5081721297966</v>
+        <v>81.469911</v>
       </c>
       <c r="I2">
-        <v>0.0682991454242098</v>
+        <v>0.05567871843833241</v>
       </c>
       <c r="J2">
-        <v>0.0682991454242098</v>
+        <v>0.03826666865920979</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.58612989972404</v>
+        <v>6.603020000000001</v>
       </c>
       <c r="N2">
-        <v>6.58612989972404</v>
+        <v>13.20604</v>
       </c>
       <c r="O2">
-        <v>0.227139585420044</v>
+        <v>0.2062486251499858</v>
       </c>
       <c r="P2">
-        <v>0.227139585420044</v>
+        <v>0.1490335290681818</v>
       </c>
       <c r="Q2">
-        <v>260.2059537474974</v>
+        <v>268.97372586561</v>
       </c>
       <c r="R2">
-        <v>260.2059537474974</v>
+        <v>1075.89490346244</v>
       </c>
       <c r="S2">
-        <v>0.01551343957619831</v>
+        <v>0.01148365912801922</v>
       </c>
       <c r="T2">
-        <v>0.01551343957619831</v>
+        <v>0.005703016675964824</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>39.5081721297966</v>
+        <v>40.7349555</v>
       </c>
       <c r="H3">
-        <v>39.5081721297966</v>
+        <v>81.469911</v>
       </c>
       <c r="I3">
-        <v>0.0682991454242098</v>
+        <v>0.05567871843833241</v>
       </c>
       <c r="J3">
-        <v>0.0682991454242098</v>
+        <v>0.03826666865920979</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.64982061651142</v>
+        <v>2.889555</v>
       </c>
       <c r="N3">
-        <v>2.64982061651142</v>
+        <v>8.668665000000001</v>
       </c>
       <c r="O3">
-        <v>0.09138586171783648</v>
+        <v>0.09025669255057035</v>
       </c>
       <c r="P3">
-        <v>0.09138586171783648</v>
+        <v>0.0978280951185844</v>
       </c>
       <c r="Q3">
-        <v>104.6895690302169</v>
+        <v>117.7058943398025</v>
       </c>
       <c r="R3">
-        <v>104.6895690302169</v>
+        <v>706.2353660388151</v>
       </c>
       <c r="S3">
-        <v>0.006241576259183241</v>
+        <v>0.005025376971698341</v>
       </c>
       <c r="T3">
-        <v>0.006241576259183241</v>
+        <v>0.003743555301464527</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>39.5081721297966</v>
+        <v>40.7349555</v>
       </c>
       <c r="H4">
-        <v>39.5081721297966</v>
+        <v>81.469911</v>
       </c>
       <c r="I4">
-        <v>0.0682991454242098</v>
+        <v>0.05567871843833241</v>
       </c>
       <c r="J4">
-        <v>0.0682991454242098</v>
+        <v>0.03826666865920979</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.15751852094418</v>
+        <v>6.577456666666667</v>
       </c>
       <c r="N4">
-        <v>4.15751852094418</v>
+        <v>19.73237</v>
       </c>
       <c r="O4">
-        <v>0.1433826917478478</v>
+        <v>0.2054501416751135</v>
       </c>
       <c r="P4">
-        <v>0.1433826917478478</v>
+        <v>0.2226848273955795</v>
       </c>
       <c r="Q4">
-        <v>164.25595735828</v>
+        <v>267.932404619845</v>
       </c>
       <c r="R4">
-        <v>164.25595735828</v>
+        <v>1607.59442771907</v>
       </c>
       <c r="S4">
-        <v>0.0097929153150009</v>
+        <v>0.01143920059144415</v>
       </c>
       <c r="T4">
-        <v>0.0097929153150009</v>
+        <v>0.008521406505379962</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>39.5081721297966</v>
+        <v>40.7349555</v>
       </c>
       <c r="H5">
-        <v>39.5081721297966</v>
+        <v>81.469911</v>
       </c>
       <c r="I5">
-        <v>0.0682991454242098</v>
+        <v>0.05567871843833241</v>
       </c>
       <c r="J5">
-        <v>0.0682991454242098</v>
+        <v>0.03826666865920979</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>11.9699479653385</v>
+        <v>12.084201</v>
       </c>
       <c r="N5">
-        <v>11.9699479653385</v>
+        <v>36.252603</v>
       </c>
       <c r="O5">
-        <v>0.412814362871951</v>
+        <v>0.377456049245055</v>
       </c>
       <c r="P5">
-        <v>0.412814362871951</v>
+        <v>0.4091198696200947</v>
       </c>
       <c r="Q5">
-        <v>472.910764599302</v>
+        <v>492.2493899880555</v>
       </c>
       <c r="R5">
-        <v>472.910764599302</v>
+        <v>2953.496339928333</v>
       </c>
       <c r="S5">
-        <v>0.02819486820299389</v>
+        <v>0.02101626908876075</v>
       </c>
       <c r="T5">
-        <v>0.02819486820299389</v>
+        <v>0.01565565449265127</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>39.5081721297966</v>
+        <v>40.7349555</v>
       </c>
       <c r="H6">
-        <v>39.5081721297966</v>
+        <v>81.469911</v>
       </c>
       <c r="I6">
-        <v>0.0682991454242098</v>
+        <v>0.05567871843833241</v>
       </c>
       <c r="J6">
-        <v>0.0682991454242098</v>
+        <v>0.03826666865920979</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.87989365697125</v>
+        <v>3.030276666666667</v>
       </c>
       <c r="N6">
-        <v>2.87989365697125</v>
+        <v>9.09083</v>
       </c>
       <c r="O6">
-        <v>0.09932052073945163</v>
+        <v>0.09465220404058775</v>
       </c>
       <c r="P6">
-        <v>0.09932052073945163</v>
+        <v>0.1025923347997507</v>
       </c>
       <c r="Q6">
-        <v>113.7793343151295</v>
+        <v>123.438185169355</v>
       </c>
       <c r="R6">
-        <v>113.7793343151295</v>
+        <v>740.62911101613</v>
       </c>
       <c r="S6">
-        <v>0.006783506689592053</v>
+        <v>0.005270113418343474</v>
       </c>
       <c r="T6">
-        <v>0.006783506689592053</v>
+        <v>0.003925866882756777</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>39.5081721297966</v>
+        <v>40.7349555</v>
       </c>
       <c r="H7">
-        <v>39.5081721297966</v>
+        <v>81.469911</v>
       </c>
       <c r="I7">
-        <v>0.0682991454242098</v>
+        <v>0.05567871843833241</v>
       </c>
       <c r="J7">
-        <v>0.0682991454242098</v>
+        <v>0.03826666865920979</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.752647431851063</v>
+        <v>0.8303465000000001</v>
       </c>
       <c r="N7">
-        <v>0.752647431851063</v>
+        <v>1.660693</v>
       </c>
       <c r="O7">
-        <v>0.02595697750286922</v>
+        <v>0.02593628733868785</v>
       </c>
       <c r="P7">
-        <v>0.02595697750286922</v>
+        <v>0.01874134399780904</v>
       </c>
       <c r="Q7">
-        <v>29.73572429062115</v>
+        <v>33.82412772708075</v>
       </c>
       <c r="R7">
-        <v>29.73572429062115</v>
+        <v>135.296510908323</v>
       </c>
       <c r="S7">
-        <v>0.001772839381241407</v>
+        <v>0.001444099240066487</v>
       </c>
       <c r="T7">
-        <v>0.001772839381241407</v>
+        <v>0.0007171688009924285</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>330.770233336439</v>
+        <v>350.3919066666667</v>
       </c>
       <c r="H8">
-        <v>330.770233336439</v>
+        <v>1051.17572</v>
       </c>
       <c r="I8">
-        <v>0.5718139577408378</v>
+        <v>0.4789344206933965</v>
       </c>
       <c r="J8">
-        <v>0.5718139577408378</v>
+        <v>0.4937404802104949</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>6.58612989972404</v>
+        <v>6.603020000000001</v>
       </c>
       <c r="N8">
-        <v>6.58612989972404</v>
+        <v>13.20604</v>
       </c>
       <c r="O8">
-        <v>0.227139585420044</v>
+        <v>0.2062486251499858</v>
       </c>
       <c r="P8">
-        <v>0.227139585420044</v>
+        <v>0.1490335290681818</v>
       </c>
       <c r="Q8">
-        <v>2178.495723715818</v>
+        <v>2313.644767558133</v>
       </c>
       <c r="R8">
-        <v>2178.495723715818</v>
+        <v>13881.8686053488</v>
       </c>
       <c r="S8">
-        <v>0.1298815852986484</v>
+        <v>0.09877956580501791</v>
       </c>
       <c r="T8">
-        <v>0.1298815852986484</v>
+        <v>0.07358388620958885</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>330.770233336439</v>
+        <v>350.3919066666667</v>
       </c>
       <c r="H9">
-        <v>330.770233336439</v>
+        <v>1051.17572</v>
       </c>
       <c r="I9">
-        <v>0.5718139577408378</v>
+        <v>0.4789344206933965</v>
       </c>
       <c r="J9">
-        <v>0.5718139577408378</v>
+        <v>0.4937404802104949</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.64982061651142</v>
+        <v>2.889555</v>
       </c>
       <c r="N9">
-        <v>2.64982061651142</v>
+        <v>8.668665000000001</v>
       </c>
       <c r="O9">
-        <v>0.09138586171783648</v>
+        <v>0.09025669255057035</v>
       </c>
       <c r="P9">
-        <v>0.09138586171783648</v>
+        <v>0.0978280951185844</v>
       </c>
       <c r="Q9">
-        <v>876.4817836231891</v>
+        <v>1012.4766858682</v>
       </c>
       <c r="R9">
-        <v>876.4817836231891</v>
+        <v>9112.2901728138</v>
       </c>
       <c r="S9">
-        <v>0.05225571127043299</v>
+        <v>0.04322703676040941</v>
       </c>
       <c r="T9">
-        <v>0.05225571127043299</v>
+        <v>0.04830169066192783</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>330.770233336439</v>
+        <v>350.3919066666667</v>
       </c>
       <c r="H10">
-        <v>330.770233336439</v>
+        <v>1051.17572</v>
       </c>
       <c r="I10">
-        <v>0.5718139577408378</v>
+        <v>0.4789344206933965</v>
       </c>
       <c r="J10">
-        <v>0.5718139577408378</v>
+        <v>0.4937404802104949</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.15751852094418</v>
+        <v>6.577456666666667</v>
       </c>
       <c r="N10">
-        <v>4.15751852094418</v>
+        <v>19.73237</v>
       </c>
       <c r="O10">
-        <v>0.1433826917478478</v>
+        <v>0.2054501416751135</v>
       </c>
       <c r="P10">
-        <v>0.1433826917478478</v>
+        <v>0.2226848273955795</v>
       </c>
       <c r="Q10">
-        <v>1375.183371273273</v>
+        <v>2304.687582450711</v>
       </c>
       <c r="R10">
-        <v>1375.183371273273</v>
+        <v>20742.1882420564</v>
       </c>
       <c r="S10">
-        <v>0.08198822443987139</v>
+        <v>0.09839714458454672</v>
       </c>
       <c r="T10">
-        <v>0.08198822443987139</v>
+        <v>0.1099485136138846</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>330.770233336439</v>
+        <v>350.3919066666667</v>
       </c>
       <c r="H11">
-        <v>330.770233336439</v>
+        <v>1051.17572</v>
       </c>
       <c r="I11">
-        <v>0.5718139577408378</v>
+        <v>0.4789344206933965</v>
       </c>
       <c r="J11">
-        <v>0.5718139577408378</v>
+        <v>0.4937404802104949</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>11.9699479653385</v>
+        <v>12.084201</v>
       </c>
       <c r="N11">
-        <v>11.9699479653385</v>
+        <v>36.252603</v>
       </c>
       <c r="O11">
-        <v>0.412814362871951</v>
+        <v>0.377456049245055</v>
       </c>
       <c r="P11">
-        <v>0.412814362871951</v>
+        <v>0.4091198696200947</v>
       </c>
       <c r="Q11">
-        <v>3959.302481520049</v>
+        <v>4234.20622893324</v>
       </c>
       <c r="R11">
-        <v>3959.302481520049</v>
+        <v>38107.85606039916</v>
       </c>
       <c r="S11">
-        <v>0.2360530146460726</v>
+        <v>0.1807766942823985</v>
       </c>
       <c r="T11">
-        <v>0.2360530146460726</v>
+        <v>0.2019990408898806</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>330.770233336439</v>
+        <v>350.3919066666667</v>
       </c>
       <c r="H12">
-        <v>330.770233336439</v>
+        <v>1051.17572</v>
       </c>
       <c r="I12">
-        <v>0.5718139577408378</v>
+        <v>0.4789344206933965</v>
       </c>
       <c r="J12">
-        <v>0.5718139577408378</v>
+        <v>0.4937404802104949</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.87989365697125</v>
+        <v>3.030276666666667</v>
       </c>
       <c r="N12">
-        <v>2.87989365697125</v>
+        <v>9.09083</v>
       </c>
       <c r="O12">
-        <v>0.09932052073945163</v>
+        <v>0.09465220404058775</v>
       </c>
       <c r="P12">
-        <v>0.09932052073945163</v>
+        <v>0.1025923347997507</v>
       </c>
       <c r="Q12">
-        <v>952.5830969005109</v>
+        <v>1061.784418960845</v>
       </c>
       <c r="R12">
-        <v>952.5830969005109</v>
+        <v>9556.0597706476</v>
       </c>
       <c r="S12">
-        <v>0.0567928600489068</v>
+        <v>0.04533219850953205</v>
       </c>
       <c r="T12">
-        <v>0.0567928600489068</v>
+        <v>0.05065398864994476</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>330.770233336439</v>
+        <v>350.3919066666667</v>
       </c>
       <c r="H13">
-        <v>330.770233336439</v>
+        <v>1051.17572</v>
       </c>
       <c r="I13">
-        <v>0.5718139577408378</v>
+        <v>0.4789344206933965</v>
       </c>
       <c r="J13">
-        <v>0.5718139577408378</v>
+        <v>0.4937404802104949</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.752647431851063</v>
+        <v>0.8303465000000001</v>
       </c>
       <c r="N13">
-        <v>0.752647431851063</v>
+        <v>1.660693</v>
       </c>
       <c r="O13">
-        <v>0.02595697750286922</v>
+        <v>0.02593628733868785</v>
       </c>
       <c r="P13">
-        <v>0.02595697750286922</v>
+        <v>0.01874134399780904</v>
       </c>
       <c r="Q13">
-        <v>248.9533666534477</v>
+        <v>290.9466933289934</v>
       </c>
       <c r="R13">
-        <v>248.9533666534477</v>
+        <v>1745.68015997396</v>
       </c>
       <c r="S13">
-        <v>0.01484256203690554</v>
+        <v>0.01242178075149194</v>
       </c>
       <c r="T13">
-        <v>0.01484256203690554</v>
+        <v>0.009253360185268312</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>124.704849261112</v>
+        <v>243.8287033333334</v>
       </c>
       <c r="H14">
-        <v>124.704849261112</v>
+        <v>731.4861100000001</v>
       </c>
       <c r="I14">
-        <v>0.2155815917478311</v>
+        <v>0.3332781281688242</v>
       </c>
       <c r="J14">
-        <v>0.2155815917478311</v>
+        <v>0.3435812836494235</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>6.58612989972404</v>
+        <v>6.603020000000001</v>
       </c>
       <c r="N14">
-        <v>6.58612989972404</v>
+        <v>13.20604</v>
       </c>
       <c r="O14">
-        <v>0.227139585420044</v>
+        <v>0.2062486251499858</v>
       </c>
       <c r="P14">
-        <v>0.227139585420044</v>
+        <v>0.1490335290681818</v>
       </c>
       <c r="Q14">
-        <v>821.3223363591891</v>
+        <v>1610.005804684067</v>
       </c>
       <c r="R14">
-        <v>821.3223363591891</v>
+        <v>9660.034828104403</v>
       </c>
       <c r="S14">
-        <v>0.04896711337379554</v>
+        <v>0.06873815572738075</v>
       </c>
       <c r="T14">
-        <v>0.04896711337379554</v>
+        <v>0.05120513122404958</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>124.704849261112</v>
+        <v>243.8287033333334</v>
       </c>
       <c r="H15">
-        <v>124.704849261112</v>
+        <v>731.4861100000001</v>
       </c>
       <c r="I15">
-        <v>0.2155815917478311</v>
+        <v>0.3332781281688242</v>
       </c>
       <c r="J15">
-        <v>0.2155815917478311</v>
+        <v>0.3435812836494235</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>2.64982061651142</v>
+        <v>2.889555</v>
       </c>
       <c r="N15">
-        <v>2.64982061651142</v>
+        <v>8.668665000000001</v>
       </c>
       <c r="O15">
-        <v>0.09138586171783648</v>
+        <v>0.09025669255057035</v>
       </c>
       <c r="P15">
-        <v>0.09138586171783648</v>
+        <v>0.0978280951185844</v>
       </c>
       <c r="Q15">
-        <v>330.4454805510435</v>
+        <v>704.5564488603501</v>
       </c>
       <c r="R15">
-        <v>330.4454805510435</v>
+        <v>6341.008039743151</v>
       </c>
       <c r="S15">
-        <v>0.01970110953237838</v>
+        <v>0.03008058154796315</v>
       </c>
       <c r="T15">
-        <v>0.01970110953237838</v>
+        <v>0.03361190249782112</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>124.704849261112</v>
+        <v>243.8287033333334</v>
       </c>
       <c r="H16">
-        <v>124.704849261112</v>
+        <v>731.4861100000001</v>
       </c>
       <c r="I16">
-        <v>0.2155815917478311</v>
+        <v>0.3332781281688242</v>
       </c>
       <c r="J16">
-        <v>0.2155815917478311</v>
+        <v>0.3435812836494235</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>4.15751852094418</v>
+        <v>6.577456666666667</v>
       </c>
       <c r="N16">
-        <v>4.15751852094418</v>
+        <v>19.73237</v>
       </c>
       <c r="O16">
-        <v>0.1433826917478478</v>
+        <v>0.2054501416751135</v>
       </c>
       <c r="P16">
-        <v>0.1433826917478478</v>
+        <v>0.2226848273955795</v>
       </c>
       <c r="Q16">
-        <v>518.4627204546252</v>
+        <v>1603.772730264522</v>
       </c>
       <c r="R16">
-        <v>518.4627204546252</v>
+        <v>14433.9545723807</v>
       </c>
       <c r="S16">
-        <v>0.03091066891608963</v>
+        <v>0.06847203864950158</v>
       </c>
       <c r="T16">
-        <v>0.03091066891608963</v>
+        <v>0.07651033884582351</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>124.704849261112</v>
+        <v>243.8287033333334</v>
       </c>
       <c r="H17">
-        <v>124.704849261112</v>
+        <v>731.4861100000001</v>
       </c>
       <c r="I17">
-        <v>0.2155815917478311</v>
+        <v>0.3332781281688242</v>
       </c>
       <c r="J17">
-        <v>0.2155815917478311</v>
+        <v>0.3435812836494235</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>11.9699479653385</v>
+        <v>12.084201</v>
       </c>
       <c r="N17">
-        <v>11.9699479653385</v>
+        <v>36.252603</v>
       </c>
       <c r="O17">
-        <v>0.412814362871951</v>
+        <v>0.377456049245055</v>
       </c>
       <c r="P17">
-        <v>0.412814362871951</v>
+        <v>0.4091198696200947</v>
       </c>
       <c r="Q17">
-        <v>1492.710556680892</v>
+        <v>2946.47506064937</v>
       </c>
       <c r="R17">
-        <v>1492.710556680892</v>
+        <v>26518.27554584433</v>
       </c>
       <c r="S17">
-        <v>0.08899517744430196</v>
+        <v>0.1257978455583915</v>
       </c>
       <c r="T17">
-        <v>0.08899517744430196</v>
+        <v>0.1405659299705569</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>124.704849261112</v>
+        <v>243.8287033333334</v>
       </c>
       <c r="H18">
-        <v>124.704849261112</v>
+        <v>731.4861100000001</v>
       </c>
       <c r="I18">
-        <v>0.2155815917478311</v>
+        <v>0.3332781281688242</v>
       </c>
       <c r="J18">
-        <v>0.2155815917478311</v>
+        <v>0.3435812836494235</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>2.87989365697125</v>
+        <v>3.030276666666667</v>
       </c>
       <c r="N18">
-        <v>2.87989365697125</v>
+        <v>9.09083</v>
       </c>
       <c r="O18">
-        <v>0.09932052073945163</v>
+        <v>0.09465220404058775</v>
       </c>
       <c r="P18">
-        <v>0.09932052073945163</v>
+        <v>0.1025923347997507</v>
       </c>
       <c r="Q18">
-        <v>359.1367043806323</v>
+        <v>738.868430374589</v>
       </c>
       <c r="R18">
-        <v>359.1367043806323</v>
+        <v>6649.815873371301</v>
       </c>
       <c r="S18">
-        <v>0.02141167595423446</v>
+        <v>0.03154550938970071</v>
       </c>
       <c r="T18">
-        <v>0.02141167595423446</v>
+        <v>0.03524880608308975</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>124.704849261112</v>
+        <v>243.8287033333334</v>
       </c>
       <c r="H19">
-        <v>124.704849261112</v>
+        <v>731.4861100000001</v>
       </c>
       <c r="I19">
-        <v>0.2155815917478311</v>
+        <v>0.3332781281688242</v>
       </c>
       <c r="J19">
-        <v>0.2155815917478311</v>
+        <v>0.3435812836494235</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.752647431851063</v>
+        <v>0.8303465000000001</v>
       </c>
       <c r="N19">
-        <v>0.752647431851063</v>
+        <v>1.660693</v>
       </c>
       <c r="O19">
-        <v>0.02595697750286922</v>
+        <v>0.02593628733868785</v>
       </c>
       <c r="P19">
-        <v>0.02595697750286922</v>
+        <v>0.01874134399780904</v>
       </c>
       <c r="Q19">
-        <v>93.85878453574988</v>
+        <v>202.4623104123717</v>
       </c>
       <c r="R19">
-        <v>93.85878453574988</v>
+        <v>1214.77386247423</v>
       </c>
       <c r="S19">
-        <v>0.005595846527031191</v>
+        <v>0.008643997295886663</v>
       </c>
       <c r="T19">
-        <v>0.005595846527031191</v>
+        <v>0.006439175028082647</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>39.3596523797394</v>
+        <v>48.737294</v>
       </c>
       <c r="H20">
-        <v>39.3596523797394</v>
+        <v>146.211882</v>
       </c>
       <c r="I20">
-        <v>0.06804239418868824</v>
+        <v>0.06661674320651284</v>
       </c>
       <c r="J20">
-        <v>0.06804239418868824</v>
+        <v>0.06867617226847689</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>6.58612989972404</v>
+        <v>6.603020000000001</v>
       </c>
       <c r="N20">
-        <v>6.58612989972404</v>
+        <v>13.20604</v>
       </c>
       <c r="O20">
-        <v>0.227139585420044</v>
+        <v>0.2062486251499858</v>
       </c>
       <c r="P20">
-        <v>0.227139585420044</v>
+        <v>0.1490335290681818</v>
       </c>
       <c r="Q20">
-        <v>259.2277833809461</v>
+        <v>321.81332702788</v>
       </c>
       <c r="R20">
-        <v>259.2277833809461</v>
+        <v>1930.87996216728</v>
       </c>
       <c r="S20">
-        <v>0.01545512120700586</v>
+        <v>0.01373961169831293</v>
       </c>
       <c r="T20">
-        <v>0.01545512120700586</v>
+        <v>0.01023505231606551</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>39.3596523797394</v>
+        <v>48.737294</v>
       </c>
       <c r="H21">
-        <v>39.3596523797394</v>
+        <v>146.211882</v>
       </c>
       <c r="I21">
-        <v>0.06804239418868824</v>
+        <v>0.06661674320651284</v>
       </c>
       <c r="J21">
-        <v>0.06804239418868824</v>
+        <v>0.06867617226847689</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>2.64982061651142</v>
+        <v>2.889555</v>
       </c>
       <c r="N21">
-        <v>2.64982061651142</v>
+        <v>8.668665000000001</v>
       </c>
       <c r="O21">
-        <v>0.09138586171783648</v>
+        <v>0.09025669255057035</v>
       </c>
       <c r="P21">
-        <v>0.09138586171783648</v>
+        <v>0.0978280951185844</v>
       </c>
       <c r="Q21">
-        <v>104.2960183345563</v>
+        <v>140.82909156417</v>
       </c>
       <c r="R21">
-        <v>104.2960183345563</v>
+        <v>1267.46182407753</v>
       </c>
       <c r="S21">
-        <v>0.006218112826277984</v>
+        <v>0.006012606910310526</v>
       </c>
       <c r="T21">
-        <v>0.006218112826277984</v>
+        <v>0.006718459113060845</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>39.3596523797394</v>
+        <v>48.737294</v>
       </c>
       <c r="H22">
-        <v>39.3596523797394</v>
+        <v>146.211882</v>
       </c>
       <c r="I22">
-        <v>0.06804239418868824</v>
+        <v>0.06661674320651284</v>
       </c>
       <c r="J22">
-        <v>0.06804239418868824</v>
+        <v>0.06867617226847689</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>4.15751852094418</v>
+        <v>6.577456666666667</v>
       </c>
       <c r="N22">
-        <v>4.15751852094418</v>
+        <v>19.73237</v>
       </c>
       <c r="O22">
-        <v>0.1433826917478478</v>
+        <v>0.2054501416751135</v>
       </c>
       <c r="P22">
-        <v>0.1433826917478478</v>
+        <v>0.2226848273955795</v>
       </c>
       <c r="Q22">
-        <v>163.6384837466912</v>
+        <v>320.5674393355933</v>
       </c>
       <c r="R22">
-        <v>163.6384837466912</v>
+        <v>2885.10695402034</v>
       </c>
       <c r="S22">
-        <v>0.009756101631742233</v>
+        <v>0.01368641932971272</v>
       </c>
       <c r="T22">
-        <v>0.009756101631742233</v>
+        <v>0.01529314156779486</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>39.3596523797394</v>
+        <v>48.737294</v>
       </c>
       <c r="H23">
-        <v>39.3596523797394</v>
+        <v>146.211882</v>
       </c>
       <c r="I23">
-        <v>0.06804239418868824</v>
+        <v>0.06661674320651284</v>
       </c>
       <c r="J23">
-        <v>0.06804239418868824</v>
+        <v>0.06867617226847689</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>11.9699479653385</v>
+        <v>12.084201</v>
       </c>
       <c r="N23">
-        <v>11.9699479653385</v>
+        <v>36.252603</v>
       </c>
       <c r="O23">
-        <v>0.412814362871951</v>
+        <v>0.377456049245055</v>
       </c>
       <c r="P23">
-        <v>0.412814362871951</v>
+        <v>0.4091198696200947</v>
       </c>
       <c r="Q23">
-        <v>471.1329909192923</v>
+        <v>588.951256892094</v>
       </c>
       <c r="R23">
-        <v>471.1329909192923</v>
+        <v>5300.561312028846</v>
       </c>
       <c r="S23">
-        <v>0.02808887760528548</v>
+        <v>0.02514489270430269</v>
       </c>
       <c r="T23">
-        <v>0.02808887760528548</v>
+        <v>0.02809678664448642</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>39.3596523797394</v>
+        <v>48.737294</v>
       </c>
       <c r="H24">
-        <v>39.3596523797394</v>
+        <v>146.211882</v>
       </c>
       <c r="I24">
-        <v>0.06804239418868824</v>
+        <v>0.06661674320651284</v>
       </c>
       <c r="J24">
-        <v>0.06804239418868824</v>
+        <v>0.06867617226847689</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>2.87989365697125</v>
+        <v>3.030276666666667</v>
       </c>
       <c r="N24">
-        <v>2.87989365697125</v>
+        <v>9.09083</v>
       </c>
       <c r="O24">
-        <v>0.09932052073945163</v>
+        <v>0.09465220404058775</v>
       </c>
       <c r="P24">
-        <v>0.09932052073945163</v>
+        <v>0.1025923347997507</v>
       </c>
       <c r="Q24">
-        <v>113.3516132290049</v>
+        <v>147.6874848046733</v>
       </c>
       <c r="R24">
-        <v>113.3516132290049</v>
+        <v>1329.18736324206</v>
       </c>
       <c r="S24">
-        <v>0.006758006023179553</v>
+        <v>0.006305421570502291</v>
       </c>
       <c r="T24">
-        <v>0.006758006023179553</v>
+        <v>0.007045648858132933</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>39.3596523797394</v>
+        <v>48.737294</v>
       </c>
       <c r="H25">
-        <v>39.3596523797394</v>
+        <v>146.211882</v>
       </c>
       <c r="I25">
-        <v>0.06804239418868824</v>
+        <v>0.06661674320651284</v>
       </c>
       <c r="J25">
-        <v>0.06804239418868824</v>
+        <v>0.06867617226847689</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.752647431851063</v>
+        <v>0.8303465000000001</v>
       </c>
       <c r="N25">
-        <v>0.752647431851063</v>
+        <v>1.660693</v>
       </c>
       <c r="O25">
-        <v>0.02595697750286922</v>
+        <v>0.02593628733868785</v>
       </c>
       <c r="P25">
-        <v>0.02595697750286922</v>
+        <v>0.01874134399780904</v>
       </c>
       <c r="Q25">
-        <v>29.62394128216144</v>
+        <v>40.46884149237101</v>
       </c>
       <c r="R25">
-        <v>29.62394128216144</v>
+        <v>242.813048954226</v>
       </c>
       <c r="S25">
-        <v>0.00176617489519714</v>
+        <v>0.001727790993371699</v>
       </c>
       <c r="T25">
-        <v>0.00176617489519714</v>
+        <v>0.001287083768936319</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>22.4013115348323</v>
+        <v>22.832077</v>
       </c>
       <c r="H26">
-        <v>22.4013115348323</v>
+        <v>68.49623099999999</v>
       </c>
       <c r="I26">
-        <v>0.03872592306179204</v>
+        <v>0.03120810544755168</v>
       </c>
       <c r="J26">
-        <v>0.03872592306179204</v>
+        <v>0.03217289111905</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>6.58612989972404</v>
+        <v>6.603020000000001</v>
       </c>
       <c r="N26">
-        <v>6.58612989972404</v>
+        <v>13.20604</v>
       </c>
       <c r="O26">
-        <v>0.227139585420044</v>
+        <v>0.2062486251499858</v>
       </c>
       <c r="P26">
-        <v>0.227139585420044</v>
+        <v>0.1490335290681818</v>
       </c>
       <c r="Q26">
-        <v>147.537947692592</v>
+        <v>150.76066107254</v>
       </c>
       <c r="R26">
-        <v>147.537947692592</v>
+        <v>904.56396643524</v>
       </c>
       <c r="S26">
-        <v>0.008796190109263963</v>
+        <v>0.006436628842093316</v>
       </c>
       <c r="T26">
-        <v>0.008796190109263963</v>
+        <v>0.004794839503798387</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>22.4013115348323</v>
+        <v>22.832077</v>
       </c>
       <c r="H27">
-        <v>22.4013115348323</v>
+        <v>68.49623099999999</v>
       </c>
       <c r="I27">
-        <v>0.03872592306179204</v>
+        <v>0.03120810544755168</v>
       </c>
       <c r="J27">
-        <v>0.03872592306179204</v>
+        <v>0.03217289111905</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>2.64982061651142</v>
+        <v>2.889555</v>
       </c>
       <c r="N27">
-        <v>2.64982061651142</v>
+        <v>8.668665000000001</v>
       </c>
       <c r="O27">
-        <v>0.09138586171783648</v>
+        <v>0.09025669255057035</v>
       </c>
       <c r="P27">
-        <v>0.09138586171783648</v>
+        <v>0.0978280951185844</v>
       </c>
       <c r="Q27">
-        <v>59.35945714189371</v>
+        <v>65.974542255735</v>
       </c>
       <c r="R27">
-        <v>59.35945714189371</v>
+        <v>593.770880301615</v>
       </c>
       <c r="S27">
-        <v>0.003539001849820502</v>
+        <v>0.002816740378465452</v>
       </c>
       <c r="T27">
-        <v>0.003539001849820502</v>
+        <v>0.003147412652634283</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>22.4013115348323</v>
+        <v>22.832077</v>
       </c>
       <c r="H28">
-        <v>22.4013115348323</v>
+        <v>68.49623099999999</v>
       </c>
       <c r="I28">
-        <v>0.03872592306179204</v>
+        <v>0.03120810544755168</v>
       </c>
       <c r="J28">
-        <v>0.03872592306179204</v>
+        <v>0.03217289111905</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>4.15751852094418</v>
+        <v>6.577456666666667</v>
       </c>
       <c r="N28">
-        <v>4.15751852094418</v>
+        <v>19.73237</v>
       </c>
       <c r="O28">
-        <v>0.1433826917478478</v>
+        <v>0.2054501416751135</v>
       </c>
       <c r="P28">
-        <v>0.1433826917478478</v>
+        <v>0.2226848273955795</v>
       </c>
       <c r="Q28">
-        <v>93.13386759950578</v>
+        <v>150.1769970774967</v>
       </c>
       <c r="R28">
-        <v>93.13386759950578</v>
+        <v>1351.59297369747</v>
       </c>
       <c r="S28">
-        <v>0.005552627089019797</v>
+        <v>0.006411709685611376</v>
       </c>
       <c r="T28">
-        <v>0.005552627089019797</v>
+        <v>0.007164414705662422</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>22.4013115348323</v>
+        <v>22.832077</v>
       </c>
       <c r="H29">
-        <v>22.4013115348323</v>
+        <v>68.49623099999999</v>
       </c>
       <c r="I29">
-        <v>0.03872592306179204</v>
+        <v>0.03120810544755168</v>
       </c>
       <c r="J29">
-        <v>0.03872592306179204</v>
+        <v>0.03217289111905</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>11.9699479653385</v>
+        <v>12.084201</v>
       </c>
       <c r="N29">
-        <v>11.9699479653385</v>
+        <v>36.252603</v>
       </c>
       <c r="O29">
-        <v>0.412814362871951</v>
+        <v>0.377456049245055</v>
       </c>
       <c r="P29">
-        <v>0.412814362871951</v>
+        <v>0.4091198696200947</v>
       </c>
       <c r="Q29">
-        <v>268.1425334272798</v>
+        <v>275.907407715477</v>
       </c>
       <c r="R29">
-        <v>268.1425334272798</v>
+        <v>2483.166669439293</v>
       </c>
       <c r="S29">
-        <v>0.01598661725538187</v>
+        <v>0.01177968818665594</v>
       </c>
       <c r="T29">
-        <v>0.01598661725538187</v>
+        <v>0.01316256901992724</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>22.4013115348323</v>
+        <v>22.832077</v>
       </c>
       <c r="H30">
-        <v>22.4013115348323</v>
+        <v>68.49623099999999</v>
       </c>
       <c r="I30">
-        <v>0.03872592306179204</v>
+        <v>0.03120810544755168</v>
       </c>
       <c r="J30">
-        <v>0.03872592306179204</v>
+        <v>0.03217289111905</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>2.87989365697125</v>
+        <v>3.030276666666667</v>
       </c>
       <c r="N30">
-        <v>2.87989365697125</v>
+        <v>9.09083</v>
       </c>
       <c r="O30">
-        <v>0.09932052073945163</v>
+        <v>0.09465220404058775</v>
       </c>
       <c r="P30">
-        <v>0.09932052073945163</v>
+        <v>0.1025923347997507</v>
       </c>
       <c r="Q30">
-        <v>64.51339499700043</v>
+        <v>69.18751018463666</v>
       </c>
       <c r="R30">
-        <v>64.51339499700043</v>
+        <v>622.6875916617299</v>
       </c>
       <c r="S30">
-        <v>0.003846278844613125</v>
+        <v>0.00295391596454184</v>
       </c>
       <c r="T30">
-        <v>0.003846278844613125</v>
+        <v>0.003300692017161502</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>22.4013115348323</v>
+        <v>22.832077</v>
       </c>
       <c r="H31">
-        <v>22.4013115348323</v>
+        <v>68.49623099999999</v>
       </c>
       <c r="I31">
-        <v>0.03872592306179204</v>
+        <v>0.03120810544755168</v>
       </c>
       <c r="J31">
-        <v>0.03872592306179204</v>
+        <v>0.03217289111905</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>0.752647431851063</v>
+        <v>0.8303465000000001</v>
       </c>
       <c r="N31">
-        <v>0.752647431851063</v>
+        <v>1.660693</v>
       </c>
       <c r="O31">
-        <v>0.02595697750286922</v>
+        <v>0.02593628733868785</v>
       </c>
       <c r="P31">
-        <v>0.02595697750286922</v>
+        <v>0.01874134399780904</v>
       </c>
       <c r="Q31">
-        <v>16.86028959678712</v>
+        <v>18.9585352246805</v>
       </c>
       <c r="R31">
-        <v>16.86028959678712</v>
+        <v>113.751211348083</v>
       </c>
       <c r="S31">
-        <v>0.00100520791369278</v>
+        <v>0.00080942239018377</v>
       </c>
       <c r="T31">
-        <v>0.00100520791369278</v>
+        <v>0.0006029632198661715</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>21.7135627023294</v>
+        <v>25.082339</v>
       </c>
       <c r="H32">
-        <v>21.7135627023294</v>
+        <v>50.164678</v>
       </c>
       <c r="I32">
-        <v>0.037536987836641</v>
+        <v>0.03428388404538221</v>
       </c>
       <c r="J32">
-        <v>0.037536987836641</v>
+        <v>0.02356250409334498</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>6.58612989972404</v>
+        <v>6.603020000000001</v>
       </c>
       <c r="N32">
-        <v>6.58612989972404</v>
+        <v>13.20604</v>
       </c>
       <c r="O32">
-        <v>0.227139585420044</v>
+        <v>0.2062486251499858</v>
       </c>
       <c r="P32">
-        <v>0.227139585420044</v>
+        <v>0.1490335290681818</v>
       </c>
       <c r="Q32">
-        <v>143.0083445433444</v>
+        <v>165.61918606378</v>
       </c>
       <c r="R32">
-        <v>143.0083445433444</v>
+        <v>662.4767442551201</v>
       </c>
       <c r="S32">
-        <v>0.00852613585513187</v>
+        <v>0.007071003949161613</v>
       </c>
       <c r="T32">
-        <v>0.00852613585513187</v>
+        <v>0.003511603138714682</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>21.7135627023294</v>
+        <v>25.082339</v>
       </c>
       <c r="H33">
-        <v>21.7135627023294</v>
+        <v>50.164678</v>
       </c>
       <c r="I33">
-        <v>0.037536987836641</v>
+        <v>0.03428388404538221</v>
       </c>
       <c r="J33">
-        <v>0.037536987836641</v>
+        <v>0.02356250409334498</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>2.64982061651142</v>
+        <v>2.889555</v>
       </c>
       <c r="N33">
-        <v>2.64982061651142</v>
+        <v>8.668665000000001</v>
       </c>
       <c r="O33">
-        <v>0.09138586171783648</v>
+        <v>0.09025669255057035</v>
       </c>
       <c r="P33">
-        <v>0.09138586171783648</v>
+        <v>0.0978280951185844</v>
       </c>
       <c r="Q33">
-        <v>57.53704610654587</v>
+        <v>72.476798069145</v>
       </c>
       <c r="R33">
-        <v>57.53704610654587</v>
+        <v>434.8607884148701</v>
       </c>
       <c r="S33">
-        <v>0.003430349979743385</v>
+        <v>0.003094349981723467</v>
       </c>
       <c r="T33">
-        <v>0.003430349979743385</v>
+        <v>0.002305074891675786</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>21.7135627023294</v>
+        <v>25.082339</v>
       </c>
       <c r="H34">
-        <v>21.7135627023294</v>
+        <v>50.164678</v>
       </c>
       <c r="I34">
-        <v>0.037536987836641</v>
+        <v>0.03428388404538221</v>
       </c>
       <c r="J34">
-        <v>0.037536987836641</v>
+        <v>0.02356250409334498</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>4.15751852094418</v>
+        <v>6.577456666666667</v>
       </c>
       <c r="N34">
-        <v>4.15751852094418</v>
+        <v>19.73237</v>
       </c>
       <c r="O34">
-        <v>0.1433826917478478</v>
+        <v>0.2054501416751135</v>
       </c>
       <c r="P34">
-        <v>0.1433826917478478</v>
+        <v>0.2226848273955795</v>
       </c>
       <c r="Q34">
-        <v>90.27453909061724</v>
+        <v>164.9779978711433</v>
       </c>
       <c r="R34">
-        <v>90.27453909061724</v>
+        <v>989.86798722686</v>
       </c>
       <c r="S34">
-        <v>0.005382154356123808</v>
+        <v>0.007043628834296939</v>
       </c>
       <c r="T34">
-        <v>0.005382154356123808</v>
+        <v>0.005247012157034161</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>21.7135627023294</v>
+        <v>25.082339</v>
       </c>
       <c r="H35">
-        <v>21.7135627023294</v>
+        <v>50.164678</v>
       </c>
       <c r="I35">
-        <v>0.037536987836641</v>
+        <v>0.03428388404538221</v>
       </c>
       <c r="J35">
-        <v>0.037536987836641</v>
+        <v>0.02356250409334498</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>11.9699479653385</v>
+        <v>12.084201</v>
       </c>
       <c r="N35">
-        <v>11.9699479653385</v>
+        <v>36.252603</v>
       </c>
       <c r="O35">
-        <v>0.412814362871951</v>
+        <v>0.377456049245055</v>
       </c>
       <c r="P35">
-        <v>0.412814362871951</v>
+        <v>0.4091198696200947</v>
       </c>
       <c r="Q35">
-        <v>259.9102156889978</v>
+        <v>303.100026026139</v>
       </c>
       <c r="R35">
-        <v>259.9102156889978</v>
+        <v>1818.600156156834</v>
       </c>
       <c r="S35">
-        <v>0.01549580771791513</v>
+        <v>0.01294065942454554</v>
       </c>
       <c r="T35">
-        <v>0.01549580771791513</v>
+        <v>0.009639888602592243</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>21.7135627023294</v>
+        <v>25.082339</v>
       </c>
       <c r="H36">
-        <v>21.7135627023294</v>
+        <v>50.164678</v>
       </c>
       <c r="I36">
-        <v>0.037536987836641</v>
+        <v>0.03428388404538221</v>
       </c>
       <c r="J36">
-        <v>0.037536987836641</v>
+        <v>0.02356250409334498</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>2.87989365697125</v>
+        <v>3.030276666666667</v>
       </c>
       <c r="N36">
-        <v>2.87989365697125</v>
+        <v>9.09083</v>
       </c>
       <c r="O36">
-        <v>0.09932052073945163</v>
+        <v>0.09465220404058775</v>
       </c>
       <c r="P36">
-        <v>0.09932052073945163</v>
+        <v>0.1025923347997507</v>
       </c>
       <c r="Q36">
-        <v>62.53275149668595</v>
+        <v>76.00642661712334</v>
       </c>
       <c r="R36">
-        <v>62.53275149668595</v>
+        <v>456.03855970274</v>
       </c>
       <c r="S36">
-        <v>0.003728193178925646</v>
+        <v>0.003245045187967368</v>
       </c>
       <c r="T36">
-        <v>0.003728193178925646</v>
+        <v>0.002417332308664943</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>21.7135627023294</v>
+        <v>25.082339</v>
       </c>
       <c r="H37">
-        <v>21.7135627023294</v>
+        <v>50.164678</v>
       </c>
       <c r="I37">
-        <v>0.037536987836641</v>
+        <v>0.03428388404538221</v>
       </c>
       <c r="J37">
-        <v>0.037536987836641</v>
+        <v>0.02356250409334498</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>0.752647431851063</v>
+        <v>0.8303465000000001</v>
       </c>
       <c r="N37">
-        <v>0.752647431851063</v>
+        <v>1.660693</v>
       </c>
       <c r="O37">
-        <v>0.02595697750286922</v>
+        <v>0.02593628733868785</v>
       </c>
       <c r="P37">
-        <v>0.02595697750286922</v>
+        <v>0.01874134399780904</v>
       </c>
       <c r="Q37">
-        <v>16.34265720424525</v>
+        <v>20.82703240046351</v>
       </c>
       <c r="R37">
-        <v>16.34265720424525</v>
+        <v>83.30812960185402</v>
       </c>
       <c r="S37">
-        <v>0.0009743467488011662</v>
+        <v>0.0008891966676872891</v>
       </c>
       <c r="T37">
-        <v>0.0009743467488011662</v>
+        <v>0.0004415929946631617</v>
       </c>
     </row>
   </sheetData>
